--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -29764,99 +29764,113 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B897" t="inlineStr"/>
-      <c r="C897" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr"/>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr"/>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E898" t="inlineStr"/>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="n">
-        <v>2</v>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="n">
-        <v>3</v>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr"/>
-      <c r="H900" t="n">
-        <v>3</v>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="901">

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1027"/>
+  <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24579,10 +24579,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -24613,10 +24611,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -24647,10 +24643,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24681,10 +24675,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24715,10 +24707,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24753,10 +24743,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24787,10 +24775,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24825,10 +24811,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24859,10 +24843,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24893,10 +24875,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -24931,10 +24911,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -24965,10 +24943,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -24999,10 +24975,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -25033,10 +25007,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -25067,10 +25039,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -25105,10 +25075,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -25143,10 +25111,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -25181,10 +25147,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -25219,10 +25183,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -25245,10 +25207,8 @@
       <c r="E749" t="inlineStr"/>
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -25283,10 +25243,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25321,10 +25279,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25359,10 +25315,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="753">
@@ -25397,10 +25351,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25435,10 +25387,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25461,10 +25411,8 @@
       <c r="E755" t="inlineStr"/>
       <c r="F755" t="inlineStr"/>
       <c r="G755" t="inlineStr"/>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -25499,10 +25447,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H756" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -25537,10 +25483,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -25575,10 +25519,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -25605,10 +25547,8 @@
       </c>
       <c r="F759" t="inlineStr"/>
       <c r="G759" t="inlineStr"/>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -25635,10 +25575,8 @@
       </c>
       <c r="F760" t="inlineStr"/>
       <c r="G760" t="inlineStr"/>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25669,10 +25607,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25703,10 +25639,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25733,10 +25667,8 @@
       </c>
       <c r="F763" t="inlineStr"/>
       <c r="G763" t="inlineStr"/>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="764">
@@ -25763,10 +25695,8 @@
       </c>
       <c r="F764" t="inlineStr"/>
       <c r="G764" t="inlineStr"/>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25793,10 +25723,8 @@
       </c>
       <c r="F765" t="inlineStr"/>
       <c r="G765" t="inlineStr"/>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25823,10 +25751,8 @@
       </c>
       <c r="F766" t="inlineStr"/>
       <c r="G766" t="inlineStr"/>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25853,10 +25779,8 @@
       </c>
       <c r="F767" t="inlineStr"/>
       <c r="G767" t="inlineStr"/>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25891,10 +25815,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25921,10 +25843,8 @@
       </c>
       <c r="F769" t="inlineStr"/>
       <c r="G769" t="inlineStr"/>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -25959,10 +25879,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -25997,10 +25915,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H771" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -26035,10 +25951,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -26073,10 +25987,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H773" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -26111,10 +26023,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H774" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -26145,10 +26055,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -26179,10 +26087,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="777">
@@ -26217,10 +26123,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="778">
@@ -26243,10 +26147,8 @@
       <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -26269,10 +26171,8 @@
       <c r="E779" t="inlineStr"/>
       <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr"/>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="780">
@@ -26299,10 +26199,8 @@
       </c>
       <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr"/>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="781">
@@ -26329,10 +26227,8 @@
       </c>
       <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr"/>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="782">
@@ -26359,10 +26255,8 @@
       </c>
       <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr"/>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26389,10 +26283,8 @@
       </c>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -26419,10 +26311,8 @@
       </c>
       <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="785">
@@ -26449,10 +26339,8 @@
       </c>
       <c r="F785" t="inlineStr"/>
       <c r="G785" t="inlineStr"/>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="786">
@@ -26479,10 +26367,8 @@
       </c>
       <c r="F786" t="inlineStr"/>
       <c r="G786" t="inlineStr"/>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -26509,10 +26395,8 @@
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr"/>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26539,10 +26423,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26577,10 +26459,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="790">
@@ -26615,10 +26495,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="791">
@@ -26641,10 +26519,8 @@
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="inlineStr"/>
       <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -26671,10 +26547,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="793">
@@ -26705,10 +26579,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="794">
@@ -26735,10 +26607,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26761,10 +26631,8 @@
       <c r="E795" t="inlineStr"/>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="796">
@@ -26787,10 +26655,8 @@
       <c r="E796" t="inlineStr"/>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26813,10 +26679,8 @@
       </c>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26843,10 +26707,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -26873,10 +26735,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -26903,10 +26763,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="801">
@@ -26929,10 +26787,8 @@
       </c>
       <c r="F801" t="inlineStr"/>
       <c r="G801" t="inlineStr"/>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -26951,10 +26807,8 @@
       <c r="E802" t="inlineStr"/>
       <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr"/>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="803">
@@ -26981,10 +26835,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="804">
@@ -27011,10 +26863,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="805">
@@ -27041,10 +26891,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="806">
@@ -27081,10 +26929,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="808">
@@ -27115,10 +26961,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27149,10 +26993,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="810">
@@ -27187,10 +27029,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -27225,10 +27065,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="812">
@@ -27263,10 +27101,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H812" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="813">
@@ -27301,10 +27137,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -27331,10 +27165,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="815">
@@ -27361,10 +27193,8 @@
       </c>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27399,10 +27229,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27437,10 +27265,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -27467,10 +27293,8 @@
       </c>
       <c r="F818" t="inlineStr"/>
       <c r="G818" t="inlineStr"/>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27497,10 +27321,8 @@
       </c>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -27527,10 +27349,8 @@
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27565,10 +27385,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -27603,10 +27421,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="823">
@@ -27641,10 +27457,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27679,10 +27493,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27717,10 +27529,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H825" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -27751,10 +27561,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H826" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -27789,10 +27597,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -27827,10 +27633,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="829">
@@ -27861,10 +27665,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -27899,10 +27701,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -27937,10 +27737,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -27971,10 +27769,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28005,10 +27801,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -28043,10 +27837,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -28081,10 +27873,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -28119,10 +27909,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -28157,10 +27945,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -28195,10 +27981,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="839">
@@ -28233,10 +28017,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -28271,10 +28053,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -28297,10 +28077,8 @@
       <c r="E841" t="inlineStr"/>
       <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr"/>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -28327,10 +28105,8 @@
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -28353,10 +28129,8 @@
       <c r="E843" t="inlineStr"/>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28383,10 +28157,8 @@
       </c>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28421,10 +28193,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -28451,10 +28221,8 @@
       </c>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28485,10 +28253,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28511,10 +28277,8 @@
       <c r="E848" t="inlineStr"/>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="849">
@@ -28545,10 +28309,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28583,10 +28345,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28621,10 +28381,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H851" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -28655,10 +28413,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="853">
@@ -28693,10 +28449,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -28731,10 +28485,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -28769,10 +28521,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -28807,10 +28557,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28841,10 +28589,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -28875,10 +28621,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28909,10 +28653,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28943,10 +28685,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28973,10 +28713,8 @@
       </c>
       <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr"/>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -29003,10 +28741,8 @@
       </c>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29033,10 +28769,8 @@
       </c>
       <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29063,10 +28797,8 @@
       </c>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -29093,10 +28825,8 @@
       </c>
       <c r="F865" t="inlineStr"/>
       <c r="G865" t="inlineStr"/>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -29127,10 +28857,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -29161,10 +28889,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -29199,10 +28925,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -29237,10 +28961,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="870">
@@ -29275,10 +28997,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29305,10 +29025,8 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29335,10 +29053,8 @@
       </c>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29365,10 +29081,8 @@
       </c>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29395,10 +29109,8 @@
       </c>
       <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -29425,10 +29137,8 @@
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29451,110 +29161,148 @@
       <c r="E876" t="inlineStr"/>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B877" t="inlineStr"/>
-      <c r="C877" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D877" t="inlineStr"/>
-      <c r="E877" t="inlineStr"/>
-      <c r="F877" t="inlineStr"/>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr"/>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr"/>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
       <c r="E879" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F880" t="inlineStr"/>
-      <c r="G880" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H880" t="inlineStr">
         <is>
           <t>3</t>
@@ -29564,29 +29312,33 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F881" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H881" t="inlineStr">
@@ -29598,33 +29350,33 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H882" t="inlineStr">
@@ -29636,25 +29388,21 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
       <c r="H883" t="inlineStr">
@@ -29666,65 +29414,57 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G885" t="inlineStr"/>
       <c r="H885" t="inlineStr">
         <is>
           <t>3</t>
@@ -29734,363 +29474,327 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F886" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G886" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr"/>
       <c r="H886" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F887" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G887" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr"/>
       <c r="H887" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F888" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G888" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F889" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G889" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F890" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G890" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="inlineStr"/>
       <c r="H890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F891" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F894" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H895" t="inlineStr">
@@ -30102,29 +29806,33 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
@@ -30136,29 +29844,29 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
@@ -30170,29 +29878,29 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
@@ -30204,31 +29912,31 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
       <c r="E899" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F899" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G899" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H899" t="inlineStr">
         <is>
           <t>3</t>
@@ -30238,107 +29946,83 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F901" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G901" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="inlineStr"/>
       <c r="H901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A902" t="inlineStr"/>
       <c r="B902" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G902" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
         <is>
           <t>3</t>
@@ -30348,97 +30032,69 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B903" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C903" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr"/>
+      <c r="C903" t="inlineStr"/>
       <c r="D903" t="inlineStr"/>
-      <c r="E903" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F903" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E903" t="inlineStr"/>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F904" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G904" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
@@ -30450,31 +30106,27 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
           <t>3</t>
@@ -30484,169 +30136,165 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C907" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr"/>
+      <c r="C907" t="inlineStr"/>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr"/>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
@@ -30660,139 +30308,131 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F914" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
@@ -30804,71 +30444,63 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H918" t="inlineStr">
@@ -30880,31 +30512,27 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
         <is>
           <t>3</t>
@@ -30914,31 +30542,23 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E920" t="inlineStr"/>
       <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G920" t="inlineStr"/>
       <c r="H920" t="inlineStr">
         <is>
           <t>3</t>
@@ -30948,31 +30568,23 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E921" t="inlineStr"/>
       <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
           <t>3</t>
@@ -30982,23 +30594,23 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
@@ -31012,27 +30624,31 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H923" t="inlineStr">
         <is>
           <t>3</t>
@@ -31040,23 +30656,23 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr"/>
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
@@ -31068,101 +30684,109 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B925" t="inlineStr"/>
-      <c r="C925" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
-      <c r="H925" t="inlineStr"/>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -31172,91 +30796,87 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr"/>
-      <c r="C929" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr"/>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr"/>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A930" t="inlineStr"/>
       <c r="B930" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E930" t="inlineStr"/>
       <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A931" t="inlineStr"/>
       <c r="B931" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A932" t="inlineStr"/>
       <c r="B932" t="inlineStr">
         <is>
           <t>CN</t>
@@ -31264,77 +30884,73 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A933" t="inlineStr"/>
       <c r="B933" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A934" t="inlineStr"/>
       <c r="B934" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -31342,35 +30958,27 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A935" t="inlineStr"/>
       <c r="B935" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F935" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H935" t="inlineStr">
@@ -31382,61 +30990,45 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G936" t="inlineStr"/>
+      <c r="H936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
           <t>3</t>
@@ -31446,12 +31038,12 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -31460,32 +31052,28 @@
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E938" t="inlineStr"/>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -31496,13 +31084,13 @@
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
@@ -31514,31 +31102,27 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31548,25 +31132,21 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
       <c r="H941" t="inlineStr">
@@ -31578,17 +31158,17 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
@@ -31604,139 +31184,159 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr"/>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr"/>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr"/>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr"/>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31746,23 +31346,31 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr"/>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr"/>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31772,57 +31380,61 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr"/>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
@@ -31832,31 +31444,27 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G951" t="inlineStr"/>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -31864,19 +31472,27 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr"/>
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
@@ -31886,137 +31502,145 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr"/>
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="954">
-      <c r="A954" t="inlineStr"/>
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
       <c r="H954" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr"/>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="inlineStr"/>
+      <c r="H955" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="955">
-      <c r="A955" t="inlineStr"/>
-      <c r="B955" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C955" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
-      <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H955" t="inlineStr">
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr"/>
+      <c r="E956" t="inlineStr"/>
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="inlineStr"/>
+      <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="956">
-      <c r="A956" t="inlineStr"/>
-      <c r="B956" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C956" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="957">
-      <c r="A957" t="inlineStr"/>
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -32026,139 +31650,163 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B958" t="inlineStr"/>
-      <c r="C958" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr"/>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
-      <c r="E960" t="inlineStr"/>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
       <c r="E962" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
@@ -32168,23 +31816,31 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr"/>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -32194,23 +31850,27 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr"/>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H964" t="inlineStr">
         <is>
           <t>3</t>
@@ -32220,159 +31880,123 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E965" t="inlineStr"/>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr"/>
       <c r="H965" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G966" t="inlineStr"/>
       <c r="H966" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E967" t="inlineStr"/>
       <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G967" t="inlineStr"/>
       <c r="H967" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
-      <c r="E968" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E968" t="inlineStr"/>
       <c r="F968" t="inlineStr"/>
       <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A969" t="inlineStr"/>
       <c r="B969" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E969" t="inlineStr"/>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32382,125 +32006,105 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B970" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C970" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr"/>
+      <c r="C970" t="inlineStr"/>
       <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G970" t="inlineStr"/>
+      <c r="H970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
       <c r="E971" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E972" t="inlineStr"/>
       <c r="F972" t="inlineStr"/>
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H973" t="inlineStr">
         <is>
           <t>3</t>
@@ -32510,7 +32114,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -32520,47 +32124,55 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr"/>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
       <c r="E975" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr"/>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H975" t="inlineStr">
         <is>
           <t>2</t>
@@ -32570,57 +32182,65 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
       <c r="E976" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
           <t>3</t>
@@ -32640,7 +32260,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
@@ -32656,12 +32276,12 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -32672,11 +32292,15 @@
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32686,12 +32310,12 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -32702,7 +32326,7 @@
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F980" t="inlineStr"/>
@@ -32716,167 +32340,131 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E981" t="inlineStr"/>
       <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G983" t="inlineStr"/>
       <c r="H983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G984" t="inlineStr"/>
       <c r="H984" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E985" t="inlineStr"/>
       <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G985" t="inlineStr"/>
       <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
@@ -32886,27 +32474,23 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D986" t="inlineStr"/>
       <c r="E986" t="inlineStr"/>
       <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
         <is>
           <t>3</t>
@@ -32916,7 +32500,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -32926,7 +32510,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D987" t="inlineStr"/>
@@ -32942,7 +32526,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -32952,7 +32536,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
@@ -32968,23 +32552,31 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr"/>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr"/>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H989" t="inlineStr">
         <is>
           <t>3</t>
@@ -32994,23 +32586,31 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr"/>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H990" t="inlineStr">
         <is>
           <t>3</t>
@@ -33018,21 +32618,33 @@
       </c>
     </row>
     <row r="991">
-      <c r="A991" t="inlineStr"/>
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr"/>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H991" t="inlineStr">
         <is>
           <t>3</t>
@@ -33042,55 +32654,63 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr"/>
-      <c r="C992" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr"/>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G993" t="inlineStr"/>
       <c r="H993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -33100,7 +32720,7 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
@@ -33109,104 +32729,80 @@
       <c r="G994" t="inlineStr"/>
       <c r="H994" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr"/>
+      <c r="C995" t="inlineStr"/>
       <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E995" t="inlineStr"/>
       <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr"/>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D996" t="inlineStr"/>
       <c r="E996" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E997" t="inlineStr"/>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H997" t="inlineStr">
@@ -33218,63 +32814,63 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D998" t="inlineStr"/>
       <c r="E998" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D999" t="inlineStr"/>
       <c r="E999" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H999" t="inlineStr">
@@ -33286,85 +32882,85 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
       <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr"/>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1001" t="inlineStr"/>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E1002" t="inlineStr"/>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
       <c r="H1002" t="inlineStr">
@@ -33376,21 +32972,25 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
       <c r="H1003" t="inlineStr">
@@ -33402,17 +33002,17 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1004" t="inlineStr"/>
@@ -33428,668 +33028,32 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1005" t="inlineStr"/>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr"/>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr"/>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr"/>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr"/>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr"/>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1013" t="inlineStr"/>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1014" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1016" t="inlineStr"/>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr"/>
-      <c r="C1017" t="inlineStr"/>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1018" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B1019" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1019" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1019" t="inlineStr"/>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1020" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1020" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1020" t="inlineStr"/>
-      <c r="E1020" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1021" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1021" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1021" t="inlineStr"/>
-      <c r="E1021" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1022" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1022" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D1022" t="inlineStr"/>
-      <c r="E1022" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1022" t="inlineStr"/>
-      <c r="G1022" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1023" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1023" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1023" t="inlineStr"/>
-      <c r="E1023" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1023" t="inlineStr"/>
-      <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1024" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1024" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D1024" t="inlineStr"/>
-      <c r="E1024" t="inlineStr"/>
-      <c r="F1024" t="inlineStr"/>
-      <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1025" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1025" t="inlineStr"/>
-      <c r="E1025" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1025" t="inlineStr"/>
-      <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1026" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D1026" t="inlineStr"/>
-      <c r="E1026" t="inlineStr"/>
-      <c r="F1026" t="inlineStr"/>
-      <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1027" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1027" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1027" t="inlineStr"/>
-      <c r="E1027" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1027" t="inlineStr"/>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1027" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1005"/>
+  <dimension ref="A1:H984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29193,10 +29193,8 @@
         </is>
       </c>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29227,10 +29225,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="879">
@@ -29265,10 +29261,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -29303,10 +29297,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -29341,10 +29333,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -29379,10 +29369,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -29405,10 +29393,8 @@
       <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -29439,10 +29425,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -29465,10 +29449,8 @@
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29495,10 +29477,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29525,10 +29505,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29555,10 +29533,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29585,10 +29561,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29615,10 +29589,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29653,10 +29625,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H891" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -29691,10 +29661,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H892" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -29725,10 +29693,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="894">
@@ -29759,10 +29725,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="895">
@@ -29797,10 +29761,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H895" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -29835,10 +29797,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29869,10 +29829,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29903,10 +29861,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29937,10 +29893,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29967,10 +29921,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -29997,10 +29949,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -30023,10 +29973,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30067,10 +30015,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="905">
@@ -30097,10 +30043,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -30127,100 +30071,94 @@
       </c>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr"/>
-      <c r="C907" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr"/>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A908" t="inlineStr"/>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
-      <c r="E908" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E908" t="inlineStr"/>
       <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A909" t="inlineStr"/>
       <c r="B909" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A910" t="inlineStr"/>
       <c r="B910" t="inlineStr">
         <is>
           <t>CN</t>
@@ -30228,77 +30166,73 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A911" t="inlineStr"/>
       <c r="B911" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr"/>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A912" t="inlineStr"/>
       <c r="B912" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H912" t="inlineStr">
         <is>
           <t>3</t>
@@ -30306,35 +30240,27 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A913" t="inlineStr"/>
       <c r="B913" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F913" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
@@ -30346,61 +30272,45 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B914" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C914" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr"/>
+      <c r="C914" t="inlineStr"/>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
+      <c r="H914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H915" t="inlineStr">
         <is>
           <t>3</t>
@@ -30410,12 +30320,12 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -30424,32 +30334,28 @@
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -30460,13 +30366,13 @@
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
@@ -30478,31 +30384,27 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
           <t>3</t>
@@ -30512,25 +30414,21 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
@@ -30542,17 +30440,17 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
@@ -30568,139 +30466,159 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr"/>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr"/>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr"/>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H925" t="inlineStr">
         <is>
           <t>3</t>
@@ -30710,23 +30628,31 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr"/>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H926" t="inlineStr">
         <is>
           <t>3</t>
@@ -30736,57 +30662,61 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -30796,31 +30726,27 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
           <t>3</t>
@@ -30828,19 +30754,27 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr"/>
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr"/>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
@@ -30850,137 +30784,145 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr"/>
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr"/>
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr"/>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
+      <c r="H933" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="933">
-      <c r="A933" t="inlineStr"/>
-      <c r="B933" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H933" t="inlineStr">
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr"/>
+      <c r="E934" t="inlineStr"/>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="inlineStr"/>
+      <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="934">
-      <c r="A934" t="inlineStr"/>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C934" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="935">
-      <c r="A935" t="inlineStr"/>
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -30990,139 +30932,163 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr"/>
-      <c r="C936" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr"/>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr"/>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
       <c r="G937" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr"/>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31132,23 +31098,31 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr"/>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
@@ -31158,23 +31132,27 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr"/>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H942" t="inlineStr">
         <is>
           <t>3</t>
@@ -31184,159 +31162,123 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E943" t="inlineStr"/>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E945" t="inlineStr"/>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G945" t="inlineStr"/>
       <c r="H945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A947" t="inlineStr"/>
       <c r="B947" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31346,125 +31288,105 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B948" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C948" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr"/>
+      <c r="C948" t="inlineStr"/>
       <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E948" t="inlineStr"/>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
+      <c r="H948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
       <c r="E949" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E950" t="inlineStr"/>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr"/>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -31474,7 +31396,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -31484,47 +31406,55 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H953" t="inlineStr">
         <is>
           <t>2</t>
@@ -31534,57 +31464,65 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H955" t="inlineStr">
         <is>
           <t>3</t>
@@ -31604,7 +31542,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
@@ -31620,12 +31558,12 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -31636,11 +31574,15 @@
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31650,12 +31592,12 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -31666,7 +31608,7 @@
       <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F958" t="inlineStr"/>
@@ -31680,167 +31622,131 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
-      <c r="E960" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E960" t="inlineStr"/>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G962" t="inlineStr"/>
       <c r="H962" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E963" t="inlineStr"/>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31850,27 +31756,23 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G964" t="inlineStr"/>
       <c r="H964" t="inlineStr">
         <is>
           <t>3</t>
@@ -31880,7 +31782,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -31890,7 +31792,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
@@ -31906,7 +31808,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -31916,7 +31818,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
@@ -31932,23 +31834,31 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr"/>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr"/>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H967" t="inlineStr">
         <is>
           <t>3</t>
@@ -31958,23 +31868,31 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
-      <c r="E968" t="inlineStr"/>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -31982,21 +31900,33 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" t="inlineStr"/>
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr"/>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32006,55 +31936,63 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B970" t="inlineStr"/>
-      <c r="C970" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr"/>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
-      <c r="H970" t="inlineStr"/>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E971" t="inlineStr"/>
       <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -32064,7 +32002,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
@@ -32073,104 +32011,80 @@
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B973" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C973" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr"/>
+      <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E973" t="inlineStr"/>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G973" t="inlineStr"/>
+      <c r="H973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
       <c r="G975" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H975" t="inlineStr">
@@ -32182,63 +32096,63 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
       <c r="E976" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F976" t="inlineStr"/>
       <c r="G976" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
       <c r="G977" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
@@ -32250,85 +32164,85 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E980" t="inlineStr"/>
       <c r="F980" t="inlineStr"/>
       <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
@@ -32340,21 +32254,25 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr"/>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
@@ -32366,17 +32284,17 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
@@ -32392,670 +32310,64 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
       <c r="H984" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr"/>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
-      <c r="H985" t="inlineStr">
-        <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr"/>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr"/>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr"/>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr"/>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr"/>
-      <c r="C995" t="inlineStr"/>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr"/>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr"/>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H984"/>
+  <dimension ref="A1:H985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29980,99 +29980,113 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B903" t="inlineStr"/>
-      <c r="C903" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr"/>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr"/>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="n">
-        <v>2</v>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="n">
-        <v>3</v>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
-      <c r="H906" t="n">
-        <v>3</v>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="907">
@@ -32371,6 +32385,32 @@
         </is>
       </c>
     </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H985"/>
+  <dimension ref="A1:H1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26898,145 +26898,189 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr"/>
-      <c r="C806" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Goods Trade BalanceNOV</t>
+        </is>
+      </c>
       <c r="D806" t="inlineStr"/>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr"/>
-      <c r="H806" t="inlineStr"/>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>£-18.97B</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>£-18.0B</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>£-17.0B</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>£-7.28B</t>
+        </is>
+      </c>
       <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
-      <c r="H807" t="n">
-        <v>3</v>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>£-6.8B</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D808" t="inlineStr"/>
       <c r="E808" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F808" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H808" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D809" t="inlineStr"/>
       <c r="E809" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F809" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H809" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D810" t="inlineStr"/>
       <c r="E810" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F810" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>£-3.72B</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H810" t="n">
-        <v>3</v>
+          <t>£-3.9B</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -27046,529 +27090,537 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D811" t="inlineStr"/>
       <c r="E811" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="F811" t="inlineStr">
-        <is>
-          <t>28%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr">
         <is>
-          <t>26.0%</t>
-        </is>
-      </c>
-      <c r="H811" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D812" t="inlineStr"/>
       <c r="E812" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H812" t="n">
-        <v>1</v>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D813" t="inlineStr"/>
       <c r="E813" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H813" t="n">
-        <v>2</v>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D814" t="inlineStr"/>
       <c r="E814" t="inlineStr">
         <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F814" t="inlineStr"/>
-      <c r="G814" t="inlineStr"/>
-      <c r="H814" t="n">
-        <v>2</v>
+          <t>€5.153B</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>€4.5B</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>€3.2B</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D815" t="inlineStr"/>
       <c r="E815" t="inlineStr">
         <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F815" t="inlineStr"/>
-      <c r="G815" t="inlineStr"/>
-      <c r="H815" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D816" t="inlineStr"/>
       <c r="E816" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H816" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D817" t="inlineStr"/>
       <c r="E817" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H817" t="n">
-        <v>2</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D818" t="inlineStr"/>
       <c r="E818" t="inlineStr">
         <is>
-          <t>1.879%</t>
-        </is>
-      </c>
-      <c r="F818" t="inlineStr"/>
-      <c r="G818" t="inlineStr"/>
-      <c r="H818" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>BoE Credit Conditions Survey</t>
         </is>
       </c>
       <c r="D819" t="inlineStr"/>
-      <c r="E819" t="inlineStr">
-        <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
+      <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="n">
-        <v>3</v>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>12-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D820" t="inlineStr"/>
       <c r="E820" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>3.187%</t>
         </is>
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="n">
-        <v>3</v>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>25-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D821" t="inlineStr"/>
-      <c r="E821" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F821" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H821" t="n">
-        <v>2</v>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="inlineStr"/>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>5-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D822" t="inlineStr"/>
       <c r="E822" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F822" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H822" t="n">
-        <v>2</v>
+          <t>2.372%</t>
+        </is>
+      </c>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D823" t="inlineStr"/>
       <c r="E823" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>€6.8B</t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>€7.2B</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H823" t="n">
-        <v>3</v>
+          <t>€1.8B</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D824" t="inlineStr"/>
       <c r="E824" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F824" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H824" t="n">
-        <v>3</v>
+          <t>$92.59B</t>
+        </is>
+      </c>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D825" t="inlineStr"/>
       <c r="E825" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F825" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H825" t="n">
-        <v>1</v>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>ECB Monetary Policy Meeting Accounts</t>
         </is>
       </c>
       <c r="D826" t="inlineStr"/>
-      <c r="E826" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E826" t="inlineStr"/>
       <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H826" t="n">
-        <v>1</v>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -27578,158 +27630,162 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D827" t="inlineStr"/>
       <c r="E827" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F827" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H827" t="n">
-        <v>2</v>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D828" t="inlineStr"/>
       <c r="E828" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>£-18.0B</t>
+          <t>250k</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>£-17.0B</t>
-        </is>
-      </c>
-      <c r="H828" t="n">
-        <v>2</v>
+          <t>240.0K</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D829" t="inlineStr"/>
       <c r="E829" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
-      <c r="F829" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G829" t="inlineStr">
         <is>
-          <t>£-6.8B</t>
-        </is>
-      </c>
-      <c r="H829" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D830" t="inlineStr"/>
       <c r="E830" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F830" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H830" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D831" t="inlineStr"/>
       <c r="E831" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G831" t="inlineStr">
@@ -27737,622 +27793,658 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H831" t="n">
-        <v>2</v>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D832" t="inlineStr"/>
       <c r="E832" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
-      <c r="F832" t="inlineStr"/>
+          <t>201K</t>
+        </is>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>£-3.9B</t>
-        </is>
-      </c>
-      <c r="H832" t="n">
-        <v>3</v>
+          <t>209.0K</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D833" t="inlineStr"/>
       <c r="E833" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F833" t="inlineStr"/>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H833" t="n">
-        <v>3</v>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D834" t="inlineStr"/>
       <c r="E834" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H834" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D835" t="inlineStr"/>
       <c r="E835" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F835" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>1867K</t>
+        </is>
+      </c>
+      <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="H835" t="n">
-        <v>3</v>
+          <t>1870.0K</t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D836" t="inlineStr"/>
       <c r="E836" t="inlineStr">
         <is>
-          <t>€5.153B</t>
-        </is>
-      </c>
-      <c r="F836" t="inlineStr">
-        <is>
-          <t>€4.5B</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr">
         <is>
-          <t>€3.2B</t>
-        </is>
-      </c>
-      <c r="H836" t="n">
-        <v>2</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D837" t="inlineStr"/>
       <c r="E837" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F837" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F837" t="inlineStr"/>
       <c r="G837" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H837" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D838" t="inlineStr"/>
       <c r="E838" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+          <t>213K</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr"/>
       <c r="G838" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H838" t="n">
-        <v>2</v>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D839" t="inlineStr"/>
       <c r="E839" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H839" t="n">
-        <v>3</v>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D840" t="inlineStr"/>
       <c r="E840" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H840" t="n">
-        <v>3</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>BoE Credit Conditions Survey</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D841" t="inlineStr"/>
-      <c r="E841" t="inlineStr"/>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
       <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr"/>
-      <c r="H841" t="n">
-        <v>3</v>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>12-Year Obligacion Auction</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D842" t="inlineStr"/>
       <c r="E842" t="inlineStr">
         <is>
-          <t>3.187%</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="n">
-        <v>3</v>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>25-Year Obligacion Auction</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D843" t="inlineStr"/>
-      <c r="E843" t="inlineStr"/>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="n">
-        <v>3</v>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>5-Year Bonos Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D844" t="inlineStr"/>
       <c r="E844" t="inlineStr">
         <is>
-          <t>2.372%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr"/>
-      <c r="H844" t="n">
-        <v>3</v>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D845" t="inlineStr"/>
       <c r="E845" t="inlineStr">
         <is>
-          <t>€6.8B</t>
-        </is>
-      </c>
-      <c r="F845" t="inlineStr">
-        <is>
-          <t>€7.2B</t>
-        </is>
-      </c>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F845" t="inlineStr"/>
       <c r="G845" t="inlineStr">
         <is>
-          <t>€1.8B</t>
-        </is>
-      </c>
-      <c r="H845" t="n">
-        <v>2</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D846" t="inlineStr"/>
       <c r="E846" t="inlineStr">
         <is>
-          <t>$92.59B</t>
-        </is>
-      </c>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr"/>
-      <c r="H846" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D847" t="inlineStr"/>
       <c r="E847" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F847" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G847" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H847" t="n">
-        <v>3</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>ECB Monetary Policy Meeting Accounts</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr"/>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr"/>
-      <c r="H848" t="n">
-        <v>2</v>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D849" t="inlineStr"/>
       <c r="E849" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H849" t="n">
-        <v>3</v>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D850" t="inlineStr"/>
       <c r="E850" t="inlineStr">
         <is>
-          <t>262.4K</t>
-        </is>
-      </c>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>250k</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>240.0K</t>
-        </is>
-      </c>
-      <c r="H850" t="n">
-        <v>2</v>
+          <t>4.245%</t>
+        </is>
+      </c>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="inlineStr"/>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -28362,33 +28454,27 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H851" t="n">
-        <v>1</v>
+          <t>4.240%</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="inlineStr"/>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -28398,29 +28484,27 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="F852" t="inlineStr"/>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H852" t="n">
-        <v>2</v>
+      <c r="G852" t="inlineStr"/>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -28430,105 +28514,67 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D853" t="inlineStr"/>
       <c r="E853" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H853" t="n">
-        <v>2</v>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr"/>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>BoC Gravelle Speech</t>
         </is>
       </c>
       <c r="D854" t="inlineStr"/>
-      <c r="E854" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="H854" t="n">
-        <v>2</v>
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr"/>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr"/>
+      <c r="C855" t="inlineStr"/>
       <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="F855" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="H855" t="n">
-        <v>2</v>
-      </c>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr"/>
+      <c r="H855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -28538,631 +28584,721 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F856" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H856" t="n">
-        <v>2</v>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr"/>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>¥-331.8B</t>
         </is>
       </c>
       <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="H857" t="n">
-        <v>3</v>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
       <c r="E858" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>¥-74B</t>
         </is>
       </c>
       <c r="F858" t="inlineStr"/>
-      <c r="G858" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H858" t="n">
-        <v>3</v>
+      <c r="G858" t="inlineStr"/>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D859" t="inlineStr"/>
       <c r="E859" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F859" t="inlineStr"/>
       <c r="G859" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H859" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D860" t="inlineStr"/>
       <c r="E860" t="inlineStr">
         <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="F860" t="inlineStr"/>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H860" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr"/>
-      <c r="H861" t="n">
-        <v>3</v>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D862" t="inlineStr"/>
       <c r="E862" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F862" t="inlineStr"/>
-      <c r="G862" t="inlineStr"/>
-      <c r="H862" t="n">
-        <v>3</v>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
       <c r="E863" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F863" t="inlineStr"/>
-      <c r="G863" t="inlineStr"/>
-      <c r="H863" t="n">
-        <v>3</v>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
       <c r="E864" t="inlineStr">
         <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="F864" t="inlineStr"/>
-      <c r="G864" t="inlineStr"/>
-      <c r="H864" t="n">
-        <v>3</v>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr">
         <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="F865" t="inlineStr"/>
-      <c r="G865" t="inlineStr"/>
-      <c r="H865" t="n">
-        <v>3</v>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F866" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G866" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H866" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
       <c r="E867" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F867" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H867" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H868" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F869" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H869" t="n">
-        <v>2</v>
+          <t>75.3%</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H870" t="n">
-        <v>3</v>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D871" t="inlineStr"/>
       <c r="E871" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
+          <t>0.2402%</t>
         </is>
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="n">
-        <v>3</v>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr">
         <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
-      <c r="H872" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr"/>
-      <c r="H873" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F874" t="inlineStr"/>
-      <c r="G874" t="inlineStr"/>
-      <c r="H874" t="n">
-        <v>3</v>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F875" t="inlineStr"/>
-      <c r="G875" t="inlineStr"/>
-      <c r="H875" t="n">
-        <v>3</v>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>BoC Gravelle Speech</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
-      <c r="E876" t="inlineStr"/>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F876" t="inlineStr"/>
-      <c r="G876" t="inlineStr"/>
-      <c r="H876" t="n">
-        <v>2</v>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>€33.0B</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="877">
@@ -29193,8 +29329,10 @@
         </is>
       </c>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="n">
-        <v>3</v>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="878">
@@ -29225,8 +29363,10 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H878" t="n">
-        <v>2</v>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="879">
@@ -29261,8 +29401,10 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H879" t="n">
-        <v>2</v>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="880">
@@ -29297,8 +29439,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H880" t="n">
-        <v>3</v>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="881">
@@ -29333,8 +29477,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H881" t="n">
-        <v>3</v>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="882">
@@ -29369,8 +29515,10 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H882" t="n">
-        <v>3</v>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="883">
@@ -29393,8 +29541,10 @@
       <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="n">
-        <v>3</v>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="884">
@@ -29425,8 +29575,10 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H884" t="n">
-        <v>3</v>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="885">
@@ -29449,8 +29601,10 @@
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="n">
-        <v>3</v>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="886">
@@ -29477,8 +29631,10 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="n">
-        <v>3</v>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="887">
@@ -29505,8 +29661,10 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="n">
-        <v>3</v>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="888">
@@ -29533,8 +29691,10 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="n">
-        <v>3</v>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="889">
@@ -29561,8 +29721,10 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="n">
-        <v>3</v>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="890">
@@ -29589,8 +29751,10 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="n">
-        <v>3</v>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="891">
@@ -29625,8 +29789,10 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H891" t="n">
-        <v>1</v>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="892">
@@ -29661,8 +29827,10 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H892" t="n">
-        <v>1</v>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="893">
@@ -29693,8 +29861,10 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H893" t="n">
-        <v>2</v>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="894">
@@ -29725,8 +29895,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H894" t="n">
-        <v>2</v>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="895">
@@ -29761,8 +29933,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H895" t="n">
-        <v>2</v>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="896">
@@ -29797,8 +29971,10 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H896" t="n">
-        <v>3</v>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="897">
@@ -29829,8 +30005,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H897" t="n">
-        <v>3</v>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="898">
@@ -29861,8 +30039,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H898" t="n">
-        <v>3</v>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="899">
@@ -29893,8 +30073,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H899" t="n">
-        <v>3</v>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="900">
@@ -29921,8 +30103,10 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="n">
-        <v>3</v>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="901">
@@ -29949,8 +30133,10 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="n">
-        <v>3</v>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="902">
@@ -29973,116 +30159,110 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="n">
-        <v>3</v>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B903" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C903" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr"/>
+      <c r="C903" t="inlineStr"/>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr"/>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr"/>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
           <t>3</t>
@@ -30092,87 +30272,91 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C907" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr"/>
+      <c r="C907" t="inlineStr"/>
       <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="E907" t="inlineStr"/>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G907" t="inlineStr"/>
+      <c r="H907" t="inlineStr"/>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr"/>
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
-      <c r="E908" t="inlineStr"/>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="909">
-      <c r="A909" t="inlineStr"/>
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="910">
-      <c r="A910" t="inlineStr"/>
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B910" t="inlineStr">
         <is>
           <t>CN</t>
@@ -30180,73 +30364,77 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="911">
-      <c r="A911" t="inlineStr"/>
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr"/>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr"/>
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
         <is>
           <t>3</t>
@@ -30254,27 +30442,35 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="inlineStr"/>
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F913" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
@@ -30286,45 +30482,61 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B914" t="inlineStr"/>
-      <c r="C914" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Industrial Production YoY FinalNOV</t>
+        </is>
+      </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr"/>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr"/>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
           <t>3</t>
@@ -30334,12 +30546,12 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -30348,28 +30560,32 @@
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr"/>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -30380,13 +30596,13 @@
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
@@ -30398,27 +30614,31 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr"/>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H918" t="inlineStr">
         <is>
           <t>3</t>
@@ -30428,21 +30648,25 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr"/>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
@@ -30454,17 +30678,17 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
@@ -30480,159 +30704,139 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E921" t="inlineStr"/>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>$ 10B</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
         <is>
           <t>3</t>
@@ -30642,31 +30846,23 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
           <t>3</t>
@@ -30676,61 +30872,57 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
+      <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -30740,27 +30932,31 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H929" t="inlineStr">
         <is>
           <t>3</t>
@@ -30768,27 +30964,19 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A930" t="inlineStr"/>
       <c r="B930" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E930" t="inlineStr"/>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
@@ -30798,89 +30986,77 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A931" t="inlineStr"/>
       <c r="B931" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A932" t="inlineStr"/>
       <c r="B932" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A933" t="inlineStr"/>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H933" t="inlineStr">
         <is>
           <t>3</t>
@@ -30888,25 +31064,29 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
+      <c r="A934" t="inlineStr"/>
       <c r="B934" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr"/>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -30914,29 +31094,29 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A935" t="inlineStr"/>
       <c r="B935" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -30946,163 +31126,139 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
       <c r="G937" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>$ 1463M</t>
         </is>
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E938" t="inlineStr"/>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31112,31 +31268,23 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G941" t="inlineStr"/>
       <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
@@ -31146,27 +31294,23 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
       <c r="H942" t="inlineStr">
         <is>
           <t>3</t>
@@ -31176,123 +31320,159 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr"/>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr"/>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr"/>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr"/>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr"/>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr"/>
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr"/>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31302,105 +31482,125 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B948" t="inlineStr"/>
-      <c r="C948" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Claimant Count ChangeDEC</t>
+        </is>
+      </c>
       <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr"/>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr"/>
-      <c r="H948" t="inlineStr"/>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
       <c r="E949" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr"/>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
+      <c r="G951" t="inlineStr"/>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -31410,7 +31610,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -31420,55 +31620,47 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
         <is>
           <t>2</t>
@@ -31478,65 +31670,57 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G954" t="inlineStr"/>
       <c r="H954" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
           <t>3</t>
@@ -31556,7 +31740,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
@@ -31572,12 +31756,12 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -31588,15 +31772,11 @@
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31606,12 +31786,12 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -31622,7 +31802,7 @@
       <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F958" t="inlineStr"/>
@@ -31636,131 +31816,167 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr"/>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr"/>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
-      <c r="E960" t="inlineStr"/>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr"/>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr"/>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr"/>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31770,23 +31986,27 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr"/>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H964" t="inlineStr">
         <is>
           <t>3</t>
@@ -31796,7 +32016,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -31806,7 +32026,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
@@ -31822,7 +32042,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -31832,7 +32052,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
@@ -31848,31 +32068,23 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E967" t="inlineStr"/>
       <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G967" t="inlineStr"/>
       <c r="H967" t="inlineStr">
         <is>
           <t>3</t>
@@ -31882,31 +32094,23 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
-      <c r="E968" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="E968" t="inlineStr"/>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -31914,33 +32118,21 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A969" t="inlineStr"/>
       <c r="B969" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E969" t="inlineStr"/>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -31950,63 +32142,55 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B970" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C970" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr"/>
+      <c r="C970" t="inlineStr"/>
       <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr"/>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>88.4</t>
+        </is>
+      </c>
       <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr"/>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -32016,7 +32200,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
@@ -32025,80 +32209,104 @@
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B973" t="inlineStr"/>
-      <c r="C973" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+        </is>
+      </c>
       <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr"/>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>£-11.25B</t>
+        </is>
+      </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
-      <c r="H973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr">
         <is>
-          <t>115.0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
       <c r="G975" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H975" t="inlineStr">
@@ -32110,63 +32318,63 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
       <c r="E976" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F976" t="inlineStr"/>
       <c r="G976" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
       <c r="G977" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
@@ -32178,85 +32386,85 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
+      <c r="E978" t="inlineStr"/>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr"/>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
       <c r="F980" t="inlineStr"/>
       <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
@@ -32268,25 +32476,21 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="E981" t="inlineStr"/>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
@@ -32298,17 +32502,17 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
@@ -32324,81 +32528,73 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
       <c r="H984" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
@@ -32411,6 +32607,808 @@
         </is>
       </c>
     </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr"/>
+      <c r="E986" t="inlineStr"/>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr"/>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="inlineStr"/>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr"/>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Raw Materials Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr"/>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Raw Materials Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr"/>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr"/>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr"/>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr"/>
+      <c r="E993" t="inlineStr"/>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr"/>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr"/>
+      <c r="C995" t="inlineStr"/>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="inlineStr"/>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr"/>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>127.1%</t>
+        </is>
+      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>115.0%</t>
+        </is>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Business ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate YoY AdvQ4</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Exports YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentJAN/18</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Imports YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Stock Investment by ForeignersJAN/18</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr"/>
+      <c r="E1004" t="inlineStr"/>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr"/>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>NAB Business ConfidenceDEC</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr"/>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>M2 Money Supply YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr"/>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="inlineStr"/>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr"/>
+      <c r="E1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="inlineStr"/>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>1-Year T-Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr"/>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr"/>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr"/>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr"/>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>20-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="inlineStr"/>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1012"/>
+  <dimension ref="A1:H990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26927,10 +26927,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -26961,10 +26959,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -26999,10 +26995,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27037,10 +27031,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27071,10 +27063,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -27105,10 +27095,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27143,10 +27131,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27181,10 +27167,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27219,10 +27203,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="815">
@@ -27257,10 +27239,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="816">
@@ -27295,10 +27275,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="817">
@@ -27333,10 +27311,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27371,10 +27347,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27397,10 +27371,8 @@
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -27427,10 +27399,8 @@
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27453,10 +27423,8 @@
       <c r="E821" t="inlineStr"/>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27483,10 +27451,8 @@
       </c>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27521,10 +27487,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -27551,10 +27515,8 @@
       </c>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27585,10 +27547,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27611,10 +27571,8 @@
       <c r="E826" t="inlineStr"/>
       <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="827">
@@ -27645,10 +27603,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27683,10 +27639,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="829">
@@ -27721,10 +27675,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H829" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -27755,10 +27707,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -27793,10 +27743,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -27831,10 +27779,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="833">
@@ -27869,10 +27815,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -27907,10 +27851,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="835">
@@ -27941,10 +27883,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -27975,10 +27915,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -28009,10 +27947,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -28043,10 +27979,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28073,10 +28007,8 @@
       </c>
       <c r="F839" t="inlineStr"/>
       <c r="G839" t="inlineStr"/>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -28103,10 +28035,8 @@
       </c>
       <c r="F840" t="inlineStr"/>
       <c r="G840" t="inlineStr"/>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -28133,10 +28063,8 @@
       </c>
       <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr"/>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -28163,10 +28091,8 @@
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -28193,10 +28119,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28227,10 +28151,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28261,10 +28183,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28299,10 +28219,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -28337,10 +28255,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="848">
@@ -28375,10 +28291,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28405,10 +28319,8 @@
       </c>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28435,10 +28347,8 @@
       </c>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -28465,10 +28375,8 @@
       </c>
       <c r="F851" t="inlineStr"/>
       <c r="G851" t="inlineStr"/>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -28495,10 +28403,8 @@
       </c>
       <c r="F852" t="inlineStr"/>
       <c r="G852" t="inlineStr"/>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28525,10 +28431,8 @@
       </c>
       <c r="F853" t="inlineStr"/>
       <c r="G853" t="inlineStr"/>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28551,110 +28455,148 @@
       <c r="E854" t="inlineStr"/>
       <c r="F854" t="inlineStr"/>
       <c r="G854" t="inlineStr"/>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr"/>
-      <c r="C855" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G855" t="inlineStr"/>
-      <c r="H855" t="inlineStr"/>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr"/>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
       <c r="E858" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F858" t="inlineStr"/>
-      <c r="G858" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H858" t="inlineStr">
         <is>
           <t>3</t>
@@ -28664,29 +28606,33 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D859" t="inlineStr"/>
       <c r="E859" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F859" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H859" t="inlineStr">
@@ -28698,33 +28644,33 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D860" t="inlineStr"/>
       <c r="E860" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H860" t="inlineStr">
@@ -28736,25 +28682,21 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D861" t="inlineStr"/>
-      <c r="E861" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E861" t="inlineStr"/>
       <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr"/>
       <c r="H861" t="inlineStr">
@@ -28766,65 +28708,57 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D862" t="inlineStr"/>
       <c r="E862" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
-      <c r="E863" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E863" t="inlineStr"/>
       <c r="F863" t="inlineStr"/>
-      <c r="G863" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G863" t="inlineStr"/>
       <c r="H863" t="inlineStr">
         <is>
           <t>3</t>
@@ -28834,363 +28768,327 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
       <c r="E864" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F864" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G864" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="inlineStr"/>
       <c r="H864" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F865" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G865" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="inlineStr"/>
       <c r="H865" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F866" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G866" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr"/>
       <c r="H866" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
       <c r="E867" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F867" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G867" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
       <c r="H867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F868" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G868" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr"/>
       <c r="H868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F869" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G869" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D871" t="inlineStr"/>
       <c r="E871" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F871" t="inlineStr"/>
-      <c r="G871" t="inlineStr"/>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F872" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H873" t="inlineStr">
@@ -29202,29 +29100,33 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F874" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G874" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H874" t="inlineStr">
@@ -29236,29 +29138,29 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H875" t="inlineStr">
@@ -29270,29 +29172,29 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H876" t="inlineStr">
@@ -29304,31 +29206,31 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F877" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G877" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H877" t="inlineStr">
         <is>
           <t>3</t>
@@ -29338,107 +29240,83 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G878" t="inlineStr"/>
       <c r="H878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
       <c r="E879" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F879" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G879" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A880" t="inlineStr"/>
       <c r="B880" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F880" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G880" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
       <c r="H880" t="inlineStr">
         <is>
           <t>3</t>
@@ -29448,97 +29326,69 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B881" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C881" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr"/>
+      <c r="C881" t="inlineStr"/>
       <c r="D881" t="inlineStr"/>
-      <c r="E881" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F881" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G881" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F882" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G882" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr"/>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
       <c r="H883" t="inlineStr">
@@ -29550,31 +29400,27 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
         <is>
           <t>3</t>
@@ -29584,169 +29430,165 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C885" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr"/>
+      <c r="C885" t="inlineStr"/>
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr"/>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr"/>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
@@ -29760,139 +29602,131 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F892" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G893" t="inlineStr"/>
       <c r="H893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H894" t="inlineStr">
@@ -29904,71 +29738,63 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F895" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
@@ -29980,31 +29806,27 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G897" t="inlineStr"/>
       <c r="H897" t="inlineStr">
         <is>
           <t>3</t>
@@ -30014,31 +29836,23 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E898" t="inlineStr"/>
       <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G898" t="inlineStr"/>
       <c r="H898" t="inlineStr">
         <is>
           <t>3</t>
@@ -30048,31 +29862,23 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
         <is>
           <t>3</t>
@@ -30082,23 +29888,23 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F900" t="inlineStr"/>
@@ -30112,27 +29918,31 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr"/>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H901" t="inlineStr">
         <is>
           <t>3</t>
@@ -30140,23 +29950,23 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" t="inlineStr"/>
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
-      <c r="E902" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E902" t="inlineStr"/>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
@@ -30168,101 +29978,109 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B903" t="inlineStr"/>
-      <c r="C903" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr"/>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr"/>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H906" t="inlineStr">
         <is>
           <t>3</t>
@@ -30272,91 +30090,87 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr"/>
-      <c r="C907" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr"/>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A908" t="inlineStr"/>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
-      <c r="E908" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E908" t="inlineStr"/>
       <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A909" t="inlineStr"/>
       <c r="B909" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A910" t="inlineStr"/>
       <c r="B910" t="inlineStr">
         <is>
           <t>CN</t>
@@ -30364,77 +30178,73 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A911" t="inlineStr"/>
       <c r="B911" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr"/>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A912" t="inlineStr"/>
       <c r="B912" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H912" t="inlineStr">
         <is>
           <t>3</t>
@@ -30442,35 +30252,27 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A913" t="inlineStr"/>
       <c r="B913" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F913" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
@@ -30482,61 +30284,45 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B914" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C914" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr"/>
+      <c r="C914" t="inlineStr"/>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
+      <c r="H914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H915" t="inlineStr">
         <is>
           <t>3</t>
@@ -30546,12 +30332,12 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -30560,32 +30346,28 @@
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -30596,13 +30378,13 @@
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
@@ -30614,31 +30396,27 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
           <t>3</t>
@@ -30648,25 +30426,21 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
@@ -30678,17 +30452,17 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
@@ -30704,139 +30478,159 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr"/>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr"/>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr"/>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H925" t="inlineStr">
         <is>
           <t>3</t>
@@ -30846,23 +30640,31 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr"/>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H926" t="inlineStr">
         <is>
           <t>3</t>
@@ -30872,57 +30674,61 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -30932,31 +30738,27 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
           <t>3</t>
@@ -30964,19 +30766,27 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr"/>
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr"/>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
@@ -30986,137 +30796,145 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr"/>
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr"/>
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr"/>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
+      <c r="H933" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="933">
-      <c r="A933" t="inlineStr"/>
-      <c r="B933" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H933" t="inlineStr">
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr"/>
+      <c r="E934" t="inlineStr"/>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="inlineStr"/>
+      <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="934">
-      <c r="A934" t="inlineStr"/>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C934" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="935">
-      <c r="A935" t="inlineStr"/>
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -31126,139 +30944,163 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr"/>
-      <c r="C936" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr"/>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr"/>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
       <c r="G937" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr"/>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31268,23 +31110,31 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr"/>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
@@ -31294,23 +31144,27 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr"/>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H942" t="inlineStr">
         <is>
           <t>3</t>
@@ -31320,159 +31174,123 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E943" t="inlineStr"/>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E945" t="inlineStr"/>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G945" t="inlineStr"/>
       <c r="H945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A947" t="inlineStr"/>
       <c r="B947" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31482,125 +31300,105 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B948" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C948" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr"/>
+      <c r="C948" t="inlineStr"/>
       <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E948" t="inlineStr"/>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
+      <c r="H948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
       <c r="E949" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E950" t="inlineStr"/>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr"/>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -31610,7 +31408,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -31620,47 +31418,55 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H953" t="inlineStr">
         <is>
           <t>2</t>
@@ -31670,57 +31476,65 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H955" t="inlineStr">
         <is>
           <t>3</t>
@@ -31740,7 +31554,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
@@ -31756,12 +31570,12 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -31772,11 +31586,15 @@
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31786,12 +31604,12 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -31802,7 +31620,7 @@
       <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F958" t="inlineStr"/>
@@ -31816,167 +31634,131 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
-      <c r="E960" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E960" t="inlineStr"/>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G962" t="inlineStr"/>
       <c r="H962" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E963" t="inlineStr"/>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31986,27 +31768,23 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G964" t="inlineStr"/>
       <c r="H964" t="inlineStr">
         <is>
           <t>3</t>
@@ -32016,7 +31794,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -32026,7 +31804,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
@@ -32042,7 +31820,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -32052,7 +31830,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
@@ -32068,23 +31846,31 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr"/>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr"/>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H967" t="inlineStr">
         <is>
           <t>3</t>
@@ -32094,23 +31880,31 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
-      <c r="E968" t="inlineStr"/>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -32118,21 +31912,33 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" t="inlineStr"/>
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr"/>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32142,55 +31948,63 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B970" t="inlineStr"/>
-      <c r="C970" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr"/>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
-      <c r="H970" t="inlineStr"/>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E971" t="inlineStr"/>
       <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -32200,7 +32014,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
@@ -32209,104 +32023,80 @@
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B973" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C973" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr"/>
+      <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E973" t="inlineStr"/>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G973" t="inlineStr"/>
+      <c r="H973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
       <c r="G975" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H975" t="inlineStr">
@@ -32318,63 +32108,63 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
       <c r="E976" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F976" t="inlineStr"/>
       <c r="G976" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
       <c r="G977" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
@@ -32386,85 +32176,85 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E980" t="inlineStr"/>
       <c r="F980" t="inlineStr"/>
       <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
@@ -32476,21 +32266,25 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr"/>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
@@ -32502,17 +32296,17 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
@@ -32528,73 +32322,81 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
       <c r="H984" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
@@ -32610,21 +32412,25 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr"/>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
@@ -32636,23 +32442,31 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr"/>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr"/>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H987" t="inlineStr">
         <is>
           <t>3</t>
@@ -32662,23 +32476,31 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr"/>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr"/>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H988" t="inlineStr">
         <is>
           <t>3</t>
@@ -32688,29 +32510,29 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
       <c r="E989" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F989" t="inlineStr"/>
       <c r="G989" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
@@ -32720,690 +32542,26 @@
       </c>
     </row>
     <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A990" t="inlineStr"/>
       <c r="B990" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G990" t="inlineStr"/>
       <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr"/>
-      <c r="C995" t="inlineStr"/>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr"/>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr"/>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>1-Year T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr"/>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H990"/>
+  <dimension ref="A1:H970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28487,10 +28487,8 @@
         </is>
       </c>
       <c r="G855" t="inlineStr"/>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -28521,10 +28519,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28559,10 +28555,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28597,10 +28591,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28635,10 +28627,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28673,10 +28663,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28699,10 +28687,8 @@
       <c r="E861" t="inlineStr"/>
       <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr"/>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -28733,10 +28719,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -28759,10 +28743,8 @@
       <c r="E863" t="inlineStr"/>
       <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -28789,10 +28771,8 @@
       </c>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -28819,10 +28799,8 @@
       </c>
       <c r="F865" t="inlineStr"/>
       <c r="G865" t="inlineStr"/>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -28849,10 +28827,8 @@
       </c>
       <c r="F866" t="inlineStr"/>
       <c r="G866" t="inlineStr"/>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -28879,10 +28855,8 @@
       </c>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr"/>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -28909,10 +28883,8 @@
       </c>
       <c r="F868" t="inlineStr"/>
       <c r="G868" t="inlineStr"/>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -28947,10 +28919,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H869" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="870">
@@ -28985,10 +28955,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H870" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -29019,10 +28987,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="872">
@@ -29053,10 +29019,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H872" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="873">
@@ -29091,10 +29055,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -29129,10 +29091,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -29163,10 +29123,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29197,10 +29155,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29231,10 +29187,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29261,10 +29215,8 @@
       </c>
       <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29291,10 +29243,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -29317,10 +29267,8 @@
       </c>
       <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -29361,10 +29309,8 @@
       </c>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -29391,10 +29337,8 @@
       </c>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -29421,100 +29365,94 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr"/>
-      <c r="C885" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr"/>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr"/>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A886" t="inlineStr"/>
       <c r="B886" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
-      <c r="E886" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E886" t="inlineStr"/>
       <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G886" t="inlineStr"/>
       <c r="H886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="887">
-      <c r="A887" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A887" t="inlineStr"/>
       <c r="B887" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G887" t="inlineStr"/>
       <c r="H887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="888">
-      <c r="A888" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A888" t="inlineStr"/>
       <c r="B888" t="inlineStr">
         <is>
           <t>CN</t>
@@ -29522,77 +29460,73 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A889" t="inlineStr"/>
       <c r="B889" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E889" t="inlineStr"/>
       <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr"/>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A890" t="inlineStr"/>
       <c r="B890" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H890" t="inlineStr">
         <is>
           <t>3</t>
@@ -29600,35 +29534,27 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A891" t="inlineStr"/>
       <c r="B891" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F891" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H891" t="inlineStr">
@@ -29640,61 +29566,45 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B892" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr"/>
+      <c r="C892" t="inlineStr"/>
       <c r="D892" t="inlineStr"/>
-      <c r="E892" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E892" t="inlineStr"/>
       <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H893" t="inlineStr">
         <is>
           <t>3</t>
@@ -29704,12 +29614,12 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -29718,32 +29628,28 @@
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
-      <c r="E894" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -29754,13 +29660,13 @@
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H895" t="inlineStr">
@@ -29772,31 +29678,27 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G896" t="inlineStr"/>
       <c r="H896" t="inlineStr">
         <is>
           <t>3</t>
@@ -29806,25 +29708,21 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
-      <c r="E897" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E897" t="inlineStr"/>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
       <c r="H897" t="inlineStr">
@@ -29836,17 +29734,17 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
@@ -29862,139 +29760,159 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr"/>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr"/>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
-      <c r="E902" t="inlineStr"/>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
-      <c r="E903" t="inlineStr"/>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr"/>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H903" t="inlineStr">
         <is>
           <t>3</t>
@@ -30004,23 +29922,31 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr"/>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F904" t="inlineStr"/>
-      <c r="G904" t="inlineStr"/>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H904" t="inlineStr">
         <is>
           <t>3</t>
@@ -30030,57 +29956,61 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr"/>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
           <t>3</t>
@@ -30090,31 +30020,27 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G907" t="inlineStr"/>
       <c r="H907" t="inlineStr">
         <is>
           <t>3</t>
@@ -30122,19 +30048,27 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr"/>
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
-      <c r="E908" t="inlineStr"/>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
@@ -30144,137 +30078,145 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" t="inlineStr"/>
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
       <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="910">
-      <c r="A910" t="inlineStr"/>
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr"/>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="inlineStr"/>
+      <c r="H911" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="911">
-      <c r="A911" t="inlineStr"/>
-      <c r="B911" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C911" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr"/>
-      <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H911" t="inlineStr">
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr"/>
+      <c r="E912" t="inlineStr"/>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="inlineStr"/>
+      <c r="H912" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="912">
-      <c r="A912" t="inlineStr"/>
-      <c r="B912" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C912" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="913">
-      <c r="A913" t="inlineStr"/>
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
           <t>3</t>
@@ -30284,139 +30226,163 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B914" t="inlineStr"/>
-      <c r="C914" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr"/>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr"/>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr"/>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr"/>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H918" t="inlineStr">
         <is>
           <t>3</t>
@@ -30426,23 +30392,31 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr"/>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr"/>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H919" t="inlineStr">
         <is>
           <t>3</t>
@@ -30452,23 +30426,27 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr"/>
       <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr"/>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H920" t="inlineStr">
         <is>
           <t>3</t>
@@ -30478,159 +30456,123 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E921" t="inlineStr"/>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E922" t="inlineStr"/>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E923" t="inlineStr"/>
       <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G923" t="inlineStr"/>
       <c r="H923" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A925" t="inlineStr"/>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
         <is>
           <t>3</t>
@@ -30640,125 +30582,105 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B926" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr"/>
+      <c r="C926" t="inlineStr"/>
       <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G926" t="inlineStr"/>
+      <c r="H926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
-      <c r="E928" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E928" t="inlineStr"/>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H929" t="inlineStr">
         <is>
           <t>3</t>
@@ -30768,7 +30690,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -30778,47 +30700,55 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr"/>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H931" t="inlineStr">
         <is>
           <t>2</t>
@@ -30828,57 +30758,65 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr"/>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H933" t="inlineStr">
         <is>
           <t>3</t>
@@ -30898,7 +30836,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
@@ -30914,12 +30852,12 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -30930,11 +30868,15 @@
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -30944,12 +30886,12 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -30960,7 +30902,7 @@
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F936" t="inlineStr"/>
@@ -30974,167 +30916,131 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E937" t="inlineStr"/>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E938" t="inlineStr"/>
       <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E940" t="inlineStr"/>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G941" t="inlineStr"/>
       <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
@@ -31144,27 +31050,23 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
       <c r="H942" t="inlineStr">
         <is>
           <t>3</t>
@@ -31174,7 +31076,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -31184,7 +31086,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
@@ -31200,7 +31102,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -31210,7 +31112,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
@@ -31226,23 +31128,31 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr"/>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H945" t="inlineStr">
         <is>
           <t>3</t>
@@ -31252,23 +31162,31 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr"/>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr"/>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H946" t="inlineStr">
         <is>
           <t>3</t>
@@ -31276,21 +31194,33 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr"/>
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr"/>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31300,55 +31230,63 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B948" t="inlineStr"/>
-      <c r="C948" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr"/>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F948" t="inlineStr"/>
       <c r="G948" t="inlineStr"/>
-      <c r="H948" t="inlineStr"/>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -31358,7 +31296,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
@@ -31367,104 +31305,80 @@
       <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B951" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C951" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr"/>
+      <c r="C951" t="inlineStr"/>
       <c r="D951" t="inlineStr"/>
-      <c r="E951" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E951" t="inlineStr"/>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G951" t="inlineStr"/>
+      <c r="H951" t="inlineStr"/>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H953" t="inlineStr">
@@ -31476,63 +31390,63 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H955" t="inlineStr">
@@ -31544,85 +31458,85 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr"/>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
@@ -31634,21 +31548,25 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr"/>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
@@ -31660,17 +31578,17 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
@@ -31686,73 +31604,81 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr"/>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
       <c r="H962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
@@ -31768,21 +31694,25 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
       <c r="H964" t="inlineStr">
@@ -31794,23 +31724,31 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr"/>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr"/>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H965" t="inlineStr">
         <is>
           <t>3</t>
@@ -31820,23 +31758,31 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr"/>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr"/>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H966" t="inlineStr">
         <is>
           <t>3</t>
@@ -31846,29 +31792,29 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
@@ -31880,31 +31826,27 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -31914,656 +31856,56 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A970" t="inlineStr"/>
       <c r="B970" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B971" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C971" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr"/>
-      <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr"/>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B972" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C972" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr"/>
-      <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr"/>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B973" t="inlineStr"/>
-      <c r="C973" t="inlineStr"/>
-      <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr"/>
-      <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
-      <c r="H973" t="inlineStr"/>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B974" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C974" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B975" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C975" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
-      <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H975" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B976" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B977" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C977" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B978" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C978" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B979" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C979" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr"/>
-      <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr"/>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D982" t="inlineStr"/>
-      <c r="E982" t="inlineStr"/>
-      <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr"/>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>1-Year T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr"/>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H970"/>
+  <dimension ref="A1:H972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29274,99 +29274,113 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B881" t="inlineStr"/>
-      <c r="C881" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr"/>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr"/>
-      <c r="H881" t="inlineStr"/>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
-      <c r="E882" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="n">
-        <v>2</v>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="n">
-        <v>3</v>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr"/>
-      <c r="H884" t="n">
-        <v>3</v>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="885">
@@ -31884,21 +31898,25 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" t="inlineStr"/>
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F970" t="inlineStr"/>
@@ -31906,6 +31924,62 @@
       <c r="H970" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Business Climate IndicatorJAN</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr"/>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr"/>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>20-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr"/>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1334"/>
+  <dimension ref="A1:H1313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30205,10 +30205,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -30243,10 +30241,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30285,10 +30281,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H917" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="918">
@@ -30327,10 +30321,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H918" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -30369,10 +30361,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H919" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -30395,10 +30385,8 @@
       <c r="E920" t="inlineStr"/>
       <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr"/>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H920" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="921">
@@ -30429,10 +30417,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30467,10 +30453,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30505,10 +30489,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30543,10 +30525,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30585,10 +30565,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30623,10 +30601,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30661,10 +30637,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30695,10 +30669,8 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30729,10 +30701,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30763,10 +30733,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30805,10 +30773,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H931" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="932">
@@ -30843,10 +30809,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30877,10 +30841,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30911,10 +30873,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30945,10 +30905,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30979,10 +30937,8 @@
       </c>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -31013,10 +30969,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -31043,10 +30997,8 @@
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -31073,10 +31025,8 @@
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -31107,10 +31057,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -31137,10 +31085,8 @@
         </is>
       </c>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -31171,10 +31117,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -31205,10 +31149,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -31227,10 +31169,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -31257,10 +31197,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -31287,10 +31225,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -31339,10 +31275,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="949">
@@ -31369,10 +31303,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H949" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="950">
@@ -31399,10 +31331,8 @@
       </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H950" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="951">
@@ -31437,10 +31367,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H951" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="952">
@@ -31475,10 +31403,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="953">
@@ -31509,10 +31435,8 @@
         </is>
       </c>
       <c r="G953" t="inlineStr"/>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31543,10 +31467,8 @@
         </is>
       </c>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31573,10 +31495,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="956">
@@ -31611,10 +31531,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31645,10 +31563,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31675,10 +31591,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31705,10 +31619,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31739,10 +31651,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31773,10 +31683,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31811,10 +31719,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31845,10 +31751,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="964">
@@ -31871,10 +31775,8 @@
       <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31905,10 +31807,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="966">
@@ -31931,10 +31831,8 @@
       <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr"/>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="967">
@@ -31969,10 +31867,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H967" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="968">
@@ -32003,10 +31899,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -32033,10 +31927,8 @@
       </c>
       <c r="F969" t="inlineStr"/>
       <c r="G969" t="inlineStr"/>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -32063,10 +31955,8 @@
       </c>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -32093,10 +31983,8 @@
       </c>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -32123,10 +32011,8 @@
       </c>
       <c r="F972" t="inlineStr"/>
       <c r="G972" t="inlineStr"/>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -32149,10 +32035,8 @@
       <c r="E973" t="inlineStr"/>
       <c r="F973" t="inlineStr"/>
       <c r="G973" t="inlineStr"/>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -32187,10 +32071,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -32221,10 +32103,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -32259,10 +32139,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H976" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="977">
@@ -32297,10 +32175,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -32335,10 +32211,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32369,10 +32243,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32403,10 +32275,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="981">
@@ -32437,10 +32307,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32475,10 +32343,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32505,10 +32371,8 @@
       </c>
       <c r="F983" t="inlineStr"/>
       <c r="G983" t="inlineStr"/>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32531,10 +32395,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32569,10 +32431,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32599,10 +32459,8 @@
       </c>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32625,10 +32483,8 @@
       </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32677,10 +32533,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32715,10 +32569,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32741,10 +32593,8 @@
       <c r="E991" t="inlineStr"/>
       <c r="F991" t="inlineStr"/>
       <c r="G991" t="inlineStr"/>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H991" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="992">
@@ -32775,10 +32625,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32809,10 +32657,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32839,10 +32685,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -32873,10 +32717,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32899,10 +32741,8 @@
       <c r="E996" t="inlineStr"/>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32937,10 +32777,8 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H997" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="998">
@@ -32971,10 +32809,8 @@
         </is>
       </c>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -33005,10 +32841,8 @@
         </is>
       </c>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -33043,10 +32877,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -33081,10 +32913,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -33115,10 +32945,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -33153,10 +32981,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -33191,10 +33017,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1005">
@@ -33229,10 +33053,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1006">
@@ -33267,10 +33089,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -33301,10 +33121,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33335,10 +33153,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33373,10 +33189,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1010">
@@ -33407,10 +33221,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1011">
@@ -33445,10 +33257,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1012">
@@ -33479,10 +33289,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1013">
@@ -33517,10 +33325,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1014">
@@ -33555,10 +33361,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1015">
@@ -33589,10 +33393,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -33627,10 +33429,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33665,10 +33465,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33703,10 +33501,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33741,10 +33537,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33779,10 +33573,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1021">
@@ -33817,10 +33609,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33855,10 +33645,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33881,10 +33669,8 @@
       <c r="E1023" t="inlineStr"/>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33919,10 +33705,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33957,10 +33741,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33995,10 +33777,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -34033,10 +33813,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -34071,10 +33849,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1029">
@@ -34097,10 +33873,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -34135,10 +33909,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -34173,10 +33945,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -34211,10 +33981,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -34241,10 +34009,8 @@
       </c>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
@@ -34271,10 +34037,8 @@
       </c>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -34305,10 +34069,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -34339,10 +34101,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1037">
@@ -34369,10 +34129,8 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -34399,10 +34157,8 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34429,10 +34185,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1040">
@@ -34459,10 +34213,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34489,10 +34241,8 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34527,10 +34277,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -34557,10 +34305,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34595,10 +34341,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34633,10 +34377,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -34671,10 +34413,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -34709,10 +34449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -34747,10 +34485,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -34781,10 +34517,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -34815,10 +34549,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1051">
@@ -34853,10 +34585,8 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1052">
@@ -34879,10 +34609,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1053">
@@ -34905,10 +34633,8 @@
       <c r="E1053" t="inlineStr"/>
       <c r="F1053" t="inlineStr"/>
       <c r="G1053" t="inlineStr"/>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -34935,10 +34661,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -34965,10 +34689,8 @@
       </c>
       <c r="F1055" t="inlineStr"/>
       <c r="G1055" t="inlineStr"/>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34995,10 +34717,8 @@
       </c>
       <c r="F1056" t="inlineStr"/>
       <c r="G1056" t="inlineStr"/>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -35025,10 +34745,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -35055,10 +34773,8 @@
       </c>
       <c r="F1058" t="inlineStr"/>
       <c r="G1058" t="inlineStr"/>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -35085,10 +34801,8 @@
       </c>
       <c r="F1059" t="inlineStr"/>
       <c r="G1059" t="inlineStr"/>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -35115,10 +34829,8 @@
       </c>
       <c r="F1060" t="inlineStr"/>
       <c r="G1060" t="inlineStr"/>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -35145,10 +34857,8 @@
       </c>
       <c r="F1061" t="inlineStr"/>
       <c r="G1061" t="inlineStr"/>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -35175,10 +34885,8 @@
       </c>
       <c r="F1062" t="inlineStr"/>
       <c r="G1062" t="inlineStr"/>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1063">
@@ -35213,10 +34921,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -35251,10 +34957,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -35277,10 +34981,8 @@
       <c r="E1065" t="inlineStr"/>
       <c r="F1065" t="inlineStr"/>
       <c r="G1065" t="inlineStr"/>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -35307,10 +35009,8 @@
       </c>
       <c r="F1066" t="inlineStr"/>
       <c r="G1066" t="inlineStr"/>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -35341,10 +35041,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -35371,10 +35069,8 @@
       </c>
       <c r="F1068" t="inlineStr"/>
       <c r="G1068" t="inlineStr"/>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35397,10 +35093,8 @@
       <c r="E1069" t="inlineStr"/>
       <c r="F1069" t="inlineStr"/>
       <c r="G1069" t="inlineStr"/>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -35423,10 +35117,8 @@
       <c r="E1070" t="inlineStr"/>
       <c r="F1070" t="inlineStr"/>
       <c r="G1070" t="inlineStr"/>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35449,10 +35141,8 @@
       </c>
       <c r="F1071" t="inlineStr"/>
       <c r="G1071" t="inlineStr"/>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35479,10 +35169,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35509,10 +35197,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35539,10 +35225,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35565,10 +35249,8 @@
       </c>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35587,10 +35269,8 @@
       <c r="E1076" t="inlineStr"/>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35617,10 +35297,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35647,10 +35325,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35677,10 +35353,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35717,10 +35391,8 @@
       <c r="E1081" t="inlineStr"/>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35751,10 +35423,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35789,10 +35459,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35827,10 +35495,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35865,10 +35531,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35903,10 +35567,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1087">
@@ -35941,10 +35603,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35971,10 +35631,8 @@
       </c>
       <c r="F1088" t="inlineStr"/>
       <c r="G1088" t="inlineStr"/>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -36001,10 +35659,8 @@
       </c>
       <c r="F1089" t="inlineStr"/>
       <c r="G1089" t="inlineStr"/>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -36039,10 +35695,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -36077,10 +35731,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -36107,10 +35759,8 @@
       </c>
       <c r="F1092" t="inlineStr"/>
       <c r="G1092" t="inlineStr"/>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -36137,10 +35787,8 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -36167,10 +35815,8 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -36205,10 +35851,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1096">
@@ -36243,10 +35887,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1097">
@@ -36281,10 +35923,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -36319,10 +35959,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36357,10 +35995,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1100">
@@ -36391,10 +36027,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1101">
@@ -36429,10 +36063,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1102">
@@ -36467,10 +36099,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36501,10 +36131,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36539,10 +36167,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1105">
@@ -36577,10 +36203,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36611,10 +36235,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36645,10 +36267,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36683,10 +36303,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36721,10 +36339,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36759,10 +36375,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36797,10 +36411,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1112">
@@ -36835,10 +36447,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1113">
@@ -36873,10 +36483,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36911,10 +36519,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36937,10 +36543,8 @@
       <c r="E1115" t="inlineStr"/>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36967,10 +36571,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36993,10 +36595,8 @@
       <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
       <c r="G1117" t="inlineStr"/>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -37023,10 +36623,8 @@
       </c>
       <c r="F1118" t="inlineStr"/>
       <c r="G1118" t="inlineStr"/>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -37061,10 +36659,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1120">
@@ -37091,10 +36687,8 @@
       </c>
       <c r="F1120" t="inlineStr"/>
       <c r="G1120" t="inlineStr"/>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1121">
@@ -37129,10 +36723,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -37155,10 +36747,8 @@
       <c r="E1122" t="inlineStr"/>
       <c r="F1122" t="inlineStr"/>
       <c r="G1122" t="inlineStr"/>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -37189,10 +36779,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -37227,10 +36815,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -37265,10 +36851,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -37303,10 +36887,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -37341,10 +36923,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -37379,10 +36959,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -37417,10 +36995,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -37455,10 +37031,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1131">
@@ -37489,10 +37063,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -37523,10 +37095,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -37557,10 +37127,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -37591,10 +37159,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -37621,10 +37187,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -37651,10 +37215,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -37681,10 +37243,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -37711,10 +37271,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -37741,10 +37299,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -37775,10 +37331,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1141">
@@ -37809,10 +37363,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1142">
@@ -37847,10 +37399,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -37885,10 +37435,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -37923,10 +37471,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1145">
@@ -37953,10 +37499,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37983,10 +37527,8 @@
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -38013,10 +37555,8 @@
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -38043,10 +37583,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -38073,10 +37611,8 @@
       </c>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1149" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1150">
@@ -38099,110 +37635,148 @@
       <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1150" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr"/>
-      <c r="C1151" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G1151" t="inlineStr"/>
-      <c r="H1151" t="inlineStr"/>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -38212,29 +37786,33 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -38246,33 +37824,33 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -38284,25 +37862,21 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E1157" t="inlineStr"/>
       <c r="F1157" t="inlineStr"/>
       <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
@@ -38314,65 +37888,57 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
           <t>3</t>
@@ -38382,365 +37948,317 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F1160" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F1161" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G1161" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1162" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1163" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1164" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F1165" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G1165" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
       <c r="G1168" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1169" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>2</t>
@@ -38750,71 +38268,71 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1170" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1170" t="inlineStr">
+      <c r="G1170" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1171" t="inlineStr">
@@ -38826,29 +38344,29 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
@@ -38860,31 +38378,35 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1173" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -38894,107 +38416,91 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1174" t="inlineStr"/>
       <c r="G1174" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1175" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -39002,37 +38508,25 @@
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -39042,95 +38536,71 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
           <t>3</t>
@@ -39140,21 +38610,25 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
@@ -39166,317 +38640,305 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr"/>
+      <c r="C1182" t="inlineStr"/>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
+      <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1182" t="inlineStr"/>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
       <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
       <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1191" t="inlineStr">
         <is>
           <t>2</t>
@@ -39486,71 +38948,63 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1192" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1192" t="inlineStr"/>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1193" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
@@ -39562,31 +39016,27 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
         <is>
           <t>3</t>
@@ -39596,35 +39046,23 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1195" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
           <t>3</t>
@@ -39634,31 +39072,23 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>3</t>
@@ -39668,23 +39098,23 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
@@ -39698,27 +39128,31 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39726,23 +39160,23 @@
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
@@ -39754,101 +39188,109 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1200" t="inlineStr"/>
       <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
       <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1203" t="inlineStr">
         <is>
           <t>3</t>
@@ -39858,91 +39300,87 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A1205" t="inlineStr"/>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A1206" t="inlineStr"/>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A1207" t="inlineStr"/>
       <c r="B1207" t="inlineStr">
         <is>
           <t>CN</t>
@@ -39950,77 +39388,77 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A1208" t="inlineStr"/>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A1209" t="inlineStr"/>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
           <t>3</t>
@@ -40028,35 +39466,27 @@
       </c>
     </row>
     <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A1210" t="inlineStr"/>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1210" t="inlineStr">
@@ -40068,61 +39498,45 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr"/>
+      <c r="C1211" t="inlineStr"/>
       <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1211" t="inlineStr"/>
+      <c r="H1211" t="inlineStr"/>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1212" t="inlineStr">
         <is>
           <t>3</t>
@@ -40132,12 +39546,12 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
@@ -40146,32 +39560,28 @@
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -40182,13 +39592,13 @@
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H1214" t="inlineStr">
@@ -40200,31 +39610,27 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
         <is>
           <t>3</t>
@@ -40234,25 +39640,21 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
       <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
@@ -40264,17 +39666,17 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
@@ -40290,139 +39692,159 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
+      <c r="E1218" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
+      <c r="G1219" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1220" t="inlineStr"/>
       <c r="G1220" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1221" t="inlineStr"/>
       <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -40432,23 +39854,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -40458,57 +39888,61 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
           <t>3</t>
@@ -40518,31 +39952,27 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -40550,19 +39980,27 @@
       </c>
     </row>
     <row r="1227">
-      <c r="A1227" t="inlineStr"/>
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
@@ -40572,81 +40010,89 @@
       </c>
     </row>
     <row r="1228">
-      <c r="A1228" t="inlineStr"/>
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr"/>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1229">
-      <c r="A1229" t="inlineStr"/>
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1230">
-      <c r="A1230" t="inlineStr"/>
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1230" t="inlineStr"/>
       <c r="H1230" t="inlineStr">
         <is>
           <t>3</t>
@@ -40654,29 +40100,25 @@
       </c>
     </row>
     <row r="1231">
-      <c r="A1231" t="inlineStr"/>
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
+      <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G1231" t="inlineStr"/>
       <c r="H1231" t="inlineStr">
         <is>
           <t>3</t>
@@ -40684,29 +40126,29 @@
       </c>
     </row>
     <row r="1232">
-      <c r="A1232" t="inlineStr"/>
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G1232" t="inlineStr"/>
       <c r="H1232" t="inlineStr">
         <is>
           <t>3</t>
@@ -40716,139 +40158,159 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr"/>
-      <c r="C1233" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr"/>
-      <c r="H1233" t="inlineStr"/>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr">
-        <is>
-          <t>2.550%</t>
-        </is>
-      </c>
+      <c r="E1237" t="inlineStr"/>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1237" t="inlineStr">
         <is>
           <t>3</t>
@@ -40858,23 +40320,31 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1238" t="inlineStr">
         <is>
           <t>3</t>
@@ -40884,23 +40354,31 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
+      <c r="G1239" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1239" t="inlineStr">
         <is>
           <t>3</t>
@@ -40910,159 +40388,123 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1242" t="inlineStr"/>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1243" t="inlineStr"/>
       <c r="F1243" t="inlineStr"/>
       <c r="G1243" t="inlineStr"/>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A1244" t="inlineStr"/>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1244" t="inlineStr"/>
       <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G1244" t="inlineStr"/>
       <c r="H1244" t="inlineStr">
         <is>
           <t>3</t>
@@ -41072,95 +40514,79 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr"/>
+      <c r="C1245" t="inlineStr"/>
       <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1245" t="inlineStr"/>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1245" t="inlineStr"/>
+      <c r="H1245" t="inlineStr"/>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
       <c r="G1246" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
+      <c r="G1247" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1247" t="inlineStr">
         <is>
           <t>3</t>
@@ -41170,7 +40596,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -41180,27 +40606,31 @@
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
@@ -41210,87 +40640,99 @@
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
@@ -41300,15 +40742,11 @@
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr"/>
       <c r="G1252" t="inlineStr"/>
       <c r="H1252" t="inlineStr">
@@ -41320,23 +40758,31 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -41346,23 +40792,23 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
@@ -41376,25 +40822,21 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1255" t="inlineStr"/>
       <c r="F1255" t="inlineStr"/>
       <c r="G1255" t="inlineStr"/>
       <c r="H1255" t="inlineStr">
@@ -41406,99 +40848,79 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1256" t="inlineStr"/>
       <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
         <is>
           <t>2</t>
@@ -41508,27 +40930,23 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr"/>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1259" t="inlineStr"/>
       <c r="H1259" t="inlineStr">
         <is>
           <t>3</t>
@@ -41538,31 +40956,23 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1260" t="inlineStr"/>
       <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1260" t="inlineStr"/>
       <c r="H1260" t="inlineStr">
         <is>
           <t>3</t>
@@ -41572,31 +40982,23 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
         <is>
           <t>3</t>
@@ -41606,7 +41008,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
@@ -41616,7 +41018,7 @@
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr"/>
@@ -41632,23 +41034,31 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr"/>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1263" t="inlineStr">
         <is>
           <t>3</t>
@@ -41658,23 +41068,31 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1264" t="inlineStr">
         <is>
           <t>3</t>
@@ -41684,43 +41102,59 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Raw Materials Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
           <t>US</t>
         </is>
       </c>
-      <c r="C1265" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr"/>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr"/>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
       <c r="H1266" t="inlineStr">
@@ -41732,145 +41166,125 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr"/>
-      <c r="C1267" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="D1267" t="inlineStr"/>
       <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr"/>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1268" t="inlineStr"/>
       <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr"/>
+      <c r="C1269" t="inlineStr"/>
       <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E1269" t="inlineStr"/>
       <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1269" t="inlineStr"/>
+      <c r="H1269" t="inlineStr"/>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1271" t="inlineStr"/>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1271" t="inlineStr">
@@ -41882,91 +41296,91 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1272" t="inlineStr"/>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1274" t="inlineStr">
         <is>
           <t>3</t>
@@ -41976,81 +41390,81 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
@@ -42066,21 +41480,25 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
@@ -42092,25 +41510,21 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
+      <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
       <c r="H1279" t="inlineStr">
@@ -42122,47 +41536,59 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
+      <c r="G1280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
       <c r="H1281" t="inlineStr">
@@ -42174,17 +41600,17 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
@@ -42200,21 +41626,25 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
       <c r="H1283" t="inlineStr">
@@ -42226,23 +41656,31 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1284" t="inlineStr">
         <is>
           <t>3</t>
@@ -42252,23 +41690,23 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr"/>
@@ -42286,29 +41724,29 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1286" t="inlineStr">
@@ -42320,31 +41758,27 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1287" t="inlineStr"/>
       <c r="H1287" t="inlineStr">
         <is>
           <t>3</t>
@@ -42354,77 +41788,85 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr"/>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr"/>
       <c r="H1290" t="inlineStr">
@@ -42436,45 +41878,53 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr"/>
-      <c r="C1291" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>OAT Auction</t>
+        </is>
+      </c>
       <c r="D1291" t="inlineStr"/>
       <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr"/>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1292" t="inlineStr"/>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1292" t="inlineStr"/>
       <c r="H1292" t="inlineStr">
         <is>
           <t>3</t>
@@ -42484,47 +41934,43 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr"/>
       <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1293" t="inlineStr"/>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr"/>
@@ -42533,156 +41979,144 @@
       <c r="G1294" t="inlineStr"/>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1295" t="inlineStr"/>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1295" t="inlineStr"/>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr"/>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1296" t="inlineStr"/>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr"/>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1297" t="inlineStr"/>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr"/>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1298" t="inlineStr"/>
       <c r="G1298" t="inlineStr"/>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr"/>
@@ -42698,23 +42132,23 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr"/>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1300" t="inlineStr"/>
@@ -42728,21 +42162,25 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
       <c r="F1301" t="inlineStr"/>
       <c r="G1301" t="inlineStr"/>
       <c r="H1301" t="inlineStr">
@@ -42754,57 +42192,53 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr"/>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr">
+      <c r="G1302" t="inlineStr"/>
+      <c r="H1302" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1303" t="inlineStr"/>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1303" t="inlineStr"/>
@@ -42818,17 +42252,17 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr"/>
@@ -42837,100 +42271,96 @@
       <c r="G1304" t="inlineStr"/>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr"/>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1306" t="inlineStr"/>
       <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1306" t="inlineStr"/>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1307" t="inlineStr"/>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1307" t="inlineStr">
@@ -42942,59 +42372,47 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1308" t="inlineStr"/>
       <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1308" t="inlineStr"/>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="E1309" t="inlineStr"/>
       <c r="F1309" t="inlineStr"/>
       <c r="G1309" t="inlineStr"/>
       <c r="H1309" t="inlineStr">
@@ -43006,53 +42424,49 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
+      <c r="E1310" t="inlineStr"/>
       <c r="F1310" t="inlineStr"/>
       <c r="G1310" t="inlineStr"/>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1311" t="inlineStr"/>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1311" t="inlineStr"/>
@@ -43064,656 +42478,54 @@
       </c>
     </row>
     <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
+      <c r="A1312" t="inlineStr"/>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1312" t="inlineStr"/>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A1313" t="inlineStr"/>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr"/>
       <c r="E1313" t="inlineStr"/>
       <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1314" t="inlineStr">
-        <is>
-          <t>4-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1315" t="inlineStr">
-        <is>
-          <t>Index-Linked OAT Auction</t>
-        </is>
-      </c>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1316" t="inlineStr">
-        <is>
-          <t>OATi Auction</t>
-        </is>
-      </c>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1317" t="inlineStr">
-        <is>
-          <t>Building Permits YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1318" t="inlineStr">
-        <is>
-          <t>Overnight Borrowing RateJAN</t>
-        </is>
-      </c>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1319" t="inlineStr">
-        <is>
-          <t>TCMB Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1320" t="inlineStr">
-        <is>
-          <t>Overnight Lending RateJAN</t>
-        </is>
-      </c>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1321" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1322" t="inlineStr">
-        <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1323" t="inlineStr">
-        <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1324" t="inlineStr">
-        <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1325" t="inlineStr">
-        <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1326" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1327" t="inlineStr">
-        <is>
-          <t>Retail Sales MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr">
-        <is>
-          <t>Retail Sales MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1329" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1330" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1331" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1332" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
-        </is>
-      </c>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr"/>
-      <c r="B1333" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1333" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr"/>
-      <c r="B1334" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1334" t="inlineStr">
-        <is>
-          <t>Federal Tax RevenuesDEC</t>
-        </is>
-      </c>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr">
-        <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
